--- a/medicine/Enfance/Le_Voyage_de_grand-père/Le_Voyage_de_grand-père.xlsx
+++ b/medicine/Enfance/Le_Voyage_de_grand-père/Le_Voyage_de_grand-père.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Voyage_de_grand-p%C3%A8re</t>
+          <t>Le_Voyage_de_grand-père</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grandfather's Journey
 Le Voyage de grand-père (titre original : Grandfather's Journey) est un album jeunesse écrit et illustré par Allen Say, publié en 1993. 
-L'œuvre reçut plusieurs récompenses, dont la médaille Caldecott aux États-Unis en 1994 pour sa version originale[1] et le prix Chronos en 1996 en France pour l'édition française. 
+L'œuvre reçut plusieurs récompenses, dont la médaille Caldecott aux États-Unis en 1994 pour sa version originale et le prix Chronos en 1996 en France pour l'édition française. 
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Voyage_de_grand-p%C3%A8re</t>
+          <t>Le_Voyage_de_grand-père</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'auteur raconte l'histoire de sa famille, et particulièrement celle de son grand-père, partagée entre le Japon et les États-Unis.
 </t>
